--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/4/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/4/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.5495</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5549.5</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.64667</v>
+        <v>6.2586</v>
       </c>
       <c r="C8" t="n">
-        <v>6646.67</v>
+        <v>6258.6</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.95115</v>
+        <v>6.895270000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>6951.15</v>
+        <v>6895.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247941</v>
       </c>
       <c r="B10" t="n">
-        <v>7.34184</v>
+        <v>7.337890000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7341.84</v>
+        <v>7337.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278891</v>
+        <v>0.278866</v>
       </c>
       <c r="B11" t="n">
-        <v>7.620109999999999</v>
+        <v>7.61099</v>
       </c>
       <c r="C11" t="n">
-        <v>7620.11</v>
+        <v>7610.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309816</v>
+        <v>0.309791</v>
       </c>
       <c r="B12" t="n">
-        <v>7.7867</v>
+        <v>7.689439999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>7786.7</v>
+        <v>7689.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340741</v>
+        <v>0.340716</v>
       </c>
       <c r="B13" t="n">
-        <v>7.95528</v>
+        <v>7.7262</v>
       </c>
       <c r="C13" t="n">
-        <v>7955.28</v>
+        <v>7726.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371666</v>
+        <v>0.371641</v>
       </c>
       <c r="B14" t="n">
-        <v>8.06997</v>
+        <v>7.745640000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>8069.97</v>
+        <v>7745.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402591</v>
+        <v>0.402566</v>
       </c>
       <c r="B15" t="n">
-        <v>8.15442</v>
+        <v>7.762930000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>8154.42</v>
+        <v>7762.93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433516</v>
+        <v>0.433491</v>
       </c>
       <c r="B16" t="n">
-        <v>8.214230000000001</v>
+        <v>7.77503</v>
       </c>
       <c r="C16" t="n">
-        <v>8214.23</v>
+        <v>7775.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464441</v>
+        <v>0.464416</v>
       </c>
       <c r="B17" t="n">
-        <v>8.24438</v>
+        <v>7.7862</v>
       </c>
       <c r="C17" t="n">
-        <v>8244.379999999999</v>
+        <v>7786.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495366</v>
+        <v>0.495341</v>
       </c>
       <c r="B18" t="n">
-        <v>8.27168</v>
+        <v>7.79555</v>
       </c>
       <c r="C18" t="n">
-        <v>8271.68</v>
+        <v>7795.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526291</v>
+        <v>0.526266</v>
       </c>
       <c r="B19" t="n">
-        <v>8.286430000000001</v>
+        <v>7.80328</v>
       </c>
       <c r="C19" t="n">
-        <v>8286.43</v>
+        <v>7803.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557216</v>
+        <v>0.557191</v>
       </c>
       <c r="B20" t="n">
-        <v>8.29574</v>
+        <v>7.809670000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>8295.74</v>
+        <v>7809.67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588141</v>
+        <v>0.588116</v>
       </c>
       <c r="B21" t="n">
-        <v>8.3032</v>
+        <v>7.81499</v>
       </c>
       <c r="C21" t="n">
-        <v>8303.200000000001</v>
+        <v>7814.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619183</v>
+        <v>0.619158</v>
       </c>
       <c r="B22" t="n">
-        <v>8.308820000000001</v>
+        <v>7.819220000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>8308.82</v>
+        <v>7819.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650356</v>
+        <v>0.650331</v>
       </c>
       <c r="B23" t="n">
-        <v>8.31274</v>
+        <v>7.822439999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>8312.74</v>
+        <v>7822.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681528</v>
+        <v>0.681503</v>
       </c>
       <c r="B24" t="n">
-        <v>8.315280000000001</v>
+        <v>7.82478</v>
       </c>
       <c r="C24" t="n">
-        <v>8315.280000000001</v>
+        <v>7824.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712705</v>
+        <v>0.71268</v>
       </c>
       <c r="B25" t="n">
-        <v>8.31643</v>
+        <v>7.826300000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>8316.43</v>
+        <v>7826.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743878</v>
+        <v>0.743853</v>
       </c>
       <c r="B26" t="n">
-        <v>8.31658</v>
+        <v>7.82698</v>
       </c>
       <c r="C26" t="n">
-        <v>8316.58</v>
+        <v>7826.98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775055</v>
+        <v>0.77503</v>
       </c>
       <c r="B27" t="n">
-        <v>8.31606</v>
+        <v>7.82694</v>
       </c>
       <c r="C27" t="n">
-        <v>8316.059999999999</v>
+        <v>7826.94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806227</v>
+        <v>0.806203</v>
       </c>
       <c r="B28" t="n">
-        <v>8.314690000000001</v>
+        <v>7.82615</v>
       </c>
       <c r="C28" t="n">
-        <v>8314.690000000001</v>
+        <v>7826.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8374</v>
+        <v>0.837375</v>
       </c>
       <c r="B29" t="n">
-        <v>8.312479999999999</v>
+        <v>7.824680000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>8312.48</v>
+        <v>7824.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868577</v>
+        <v>0.868552</v>
       </c>
       <c r="B30" t="n">
-        <v>8.309700000000001</v>
+        <v>7.822520000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>8309.700000000001</v>
+        <v>7822.52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899749</v>
+        <v>0.899725</v>
       </c>
       <c r="B31" t="n">
-        <v>8.30621</v>
+        <v>7.81974</v>
       </c>
       <c r="C31" t="n">
-        <v>8306.209999999999</v>
+        <v>7819.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930922</v>
+        <v>0.930897</v>
       </c>
       <c r="B32" t="n">
-        <v>8.302070000000001</v>
+        <v>7.8163</v>
       </c>
       <c r="C32" t="n">
-        <v>8302.07</v>
+        <v>7816.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962099</v>
+        <v>0.962074</v>
       </c>
       <c r="B33" t="n">
-        <v>8.29726</v>
+        <v>7.81221</v>
       </c>
       <c r="C33" t="n">
-        <v>8297.26</v>
+        <v>7812.21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993272</v>
+        <v>0.993247</v>
       </c>
       <c r="B34" t="n">
-        <v>8.291870000000001</v>
+        <v>7.80753</v>
       </c>
       <c r="C34" t="n">
-        <v>8291.870000000001</v>
+        <v>7807.53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>8.28593</v>
+        <v>7.80217</v>
       </c>
       <c r="C35" t="n">
-        <v>8285.93</v>
+        <v>7802.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>8.279450000000001</v>
+        <v>7.79617</v>
       </c>
       <c r="C36" t="n">
-        <v>8279.450000000001</v>
+        <v>7796.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>8.272399999999999</v>
+        <v>7.78955</v>
       </c>
       <c r="C37" t="n">
-        <v>8272.4</v>
+        <v>7789.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11873</v>
+        <v>1.1185</v>
       </c>
       <c r="B38" t="n">
-        <v>8.26469</v>
+        <v>7.78224</v>
       </c>
       <c r="C38" t="n">
-        <v>8264.690000000001</v>
+        <v>7782.24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14976</v>
+        <v>1.14947</v>
       </c>
       <c r="B39" t="n">
-        <v>8.25647</v>
+        <v>7.77435</v>
       </c>
       <c r="C39" t="n">
-        <v>8256.469999999999</v>
+        <v>7774.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18073</v>
+        <v>1.18043</v>
       </c>
       <c r="B40" t="n">
-        <v>8.2477</v>
+        <v>7.76579</v>
       </c>
       <c r="C40" t="n">
-        <v>8247.700000000001</v>
+        <v>7765.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.2117</v>
+        <v>1.21141</v>
       </c>
       <c r="B41" t="n">
-        <v>8.23841</v>
+        <v>7.75647</v>
       </c>
       <c r="C41" t="n">
-        <v>8238.41</v>
+        <v>7756.47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24266</v>
+        <v>1.24237</v>
       </c>
       <c r="B42" t="n">
-        <v>8.228530000000001</v>
+        <v>7.74628</v>
       </c>
       <c r="C42" t="n">
-        <v>8228.530000000001</v>
+        <v>7746.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27363</v>
+        <v>1.27334</v>
       </c>
       <c r="B43" t="n">
-        <v>8.21795</v>
+        <v>7.73509</v>
       </c>
       <c r="C43" t="n">
-        <v>8217.950000000001</v>
+        <v>7735.09</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.3046</v>
+        <v>1.30402</v>
       </c>
       <c r="B44" t="n">
-        <v>8.20651</v>
+        <v>7.72297</v>
       </c>
       <c r="C44" t="n">
-        <v>8206.51</v>
+        <v>7722.97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33527</v>
+        <v>1.33457</v>
       </c>
       <c r="B45" t="n">
-        <v>8.194270000000001</v>
+        <v>7.710290000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>8194.27</v>
+        <v>7710.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36582</v>
+        <v>1.36513</v>
       </c>
       <c r="B46" t="n">
-        <v>8.181319999999999</v>
+        <v>7.69685</v>
       </c>
       <c r="C46" t="n">
-        <v>8181.32</v>
+        <v>7696.85</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39638</v>
+        <v>1.39568</v>
       </c>
       <c r="B47" t="n">
-        <v>8.1678</v>
+        <v>7.6827</v>
       </c>
       <c r="C47" t="n">
-        <v>8167.8</v>
+        <v>7682.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42693</v>
+        <v>1.42624</v>
       </c>
       <c r="B48" t="n">
-        <v>8.15368</v>
+        <v>7.66782</v>
       </c>
       <c r="C48" t="n">
-        <v>8153.68</v>
+        <v>7667.82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45749</v>
+        <v>1.45679</v>
       </c>
       <c r="B49" t="n">
-        <v>8.13893</v>
+        <v>7.65196</v>
       </c>
       <c r="C49" t="n">
-        <v>8138.93</v>
+        <v>7651.96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48804</v>
+        <v>1.48735</v>
       </c>
       <c r="B50" t="n">
-        <v>8.1236</v>
+        <v>7.63521</v>
       </c>
       <c r="C50" t="n">
-        <v>8123.6</v>
+        <v>7635.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51859</v>
+        <v>1.5179</v>
       </c>
       <c r="B51" t="n">
-        <v>8.107530000000001</v>
+        <v>7.617560000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>8107.53</v>
+        <v>7617.56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.54915</v>
+        <v>1.54846</v>
       </c>
       <c r="B52" t="n">
-        <v>8.09066</v>
+        <v>7.59873</v>
       </c>
       <c r="C52" t="n">
-        <v>8090.66</v>
+        <v>7598.73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5797</v>
+        <v>1.57901</v>
       </c>
       <c r="B53" t="n">
-        <v>8.073029999999999</v>
+        <v>7.57846</v>
       </c>
       <c r="C53" t="n">
-        <v>8073.03</v>
+        <v>7578.46</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61026</v>
+        <v>1.60956</v>
       </c>
       <c r="B54" t="n">
-        <v>8.054460000000001</v>
+        <v>7.55692</v>
       </c>
       <c r="C54" t="n">
-        <v>8054.46</v>
+        <v>7556.92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64082</v>
+        <v>1.64012</v>
       </c>
       <c r="B55" t="n">
-        <v>8.034750000000001</v>
+        <v>7.53409</v>
       </c>
       <c r="C55" t="n">
-        <v>8034.75</v>
+        <v>7534.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67137</v>
+        <v>1.67067</v>
       </c>
       <c r="B56" t="n">
-        <v>8.013870000000001</v>
+        <v>7.51008</v>
       </c>
       <c r="C56" t="n">
-        <v>8013.87</v>
+        <v>7510.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70193</v>
+        <v>1.70123</v>
       </c>
       <c r="B57" t="n">
-        <v>7.99191</v>
+        <v>7.48479</v>
       </c>
       <c r="C57" t="n">
-        <v>7991.91</v>
+        <v>7484.79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73248</v>
+        <v>1.73179</v>
       </c>
       <c r="B58" t="n">
-        <v>7.968800000000001</v>
+        <v>7.45804</v>
       </c>
       <c r="C58" t="n">
-        <v>7968.8</v>
+        <v>7458.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76303</v>
+        <v>1.76234</v>
       </c>
       <c r="B59" t="n">
-        <v>7.94461</v>
+        <v>7.4299</v>
       </c>
       <c r="C59" t="n">
-        <v>7944.61</v>
+        <v>7429.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79359</v>
+        <v>1.7929</v>
       </c>
       <c r="B60" t="n">
-        <v>7.91916</v>
+        <v>7.40025</v>
       </c>
       <c r="C60" t="n">
-        <v>7919.16</v>
+        <v>7400.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82414</v>
+        <v>1.82397</v>
       </c>
       <c r="B61" t="n">
-        <v>7.892510000000001</v>
+        <v>7.36836</v>
       </c>
       <c r="C61" t="n">
-        <v>7892.51</v>
+        <v>7368.36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8547</v>
+        <v>1.85504</v>
       </c>
       <c r="B62" t="n">
-        <v>7.864479999999999</v>
+        <v>7.33465</v>
       </c>
       <c r="C62" t="n">
-        <v>7864.48</v>
+        <v>7334.65</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88574</v>
+        <v>1.88588</v>
       </c>
       <c r="B63" t="n">
-        <v>7.83467</v>
+        <v>7.29928</v>
       </c>
       <c r="C63" t="n">
-        <v>7834.67</v>
+        <v>7299.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.91687</v>
+        <v>1.91703</v>
       </c>
       <c r="B64" t="n">
-        <v>7.80315</v>
+        <v>7.2615</v>
       </c>
       <c r="C64" t="n">
-        <v>7803.15</v>
+        <v>7261.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.94759</v>
+        <v>1.94788</v>
       </c>
       <c r="B65" t="n">
-        <v>7.77049</v>
+        <v>7.22201</v>
       </c>
       <c r="C65" t="n">
-        <v>7770.49</v>
+        <v>7222.01</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.97885</v>
+        <v>1.97904</v>
       </c>
       <c r="B66" t="n">
-        <v>7.73545</v>
+        <v>7.17984</v>
       </c>
       <c r="C66" t="n">
-        <v>7735.45</v>
+        <v>7179.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.00963</v>
+        <v>2.00993</v>
       </c>
       <c r="B67" t="n">
-        <v>7.699170000000001</v>
+        <v>7.13566</v>
       </c>
       <c r="C67" t="n">
-        <v>7699.17</v>
+        <v>7135.66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04068</v>
+        <v>2.04109</v>
       </c>
       <c r="B68" t="n">
-        <v>7.66049</v>
+        <v>7.0888</v>
       </c>
       <c r="C68" t="n">
-        <v>7660.49</v>
+        <v>7088.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07159</v>
+        <v>2.07206</v>
       </c>
       <c r="B69" t="n">
-        <v>7.62025</v>
+        <v>7.039470000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>7620.25</v>
+        <v>7039.47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10273</v>
+        <v>2.10283</v>
       </c>
       <c r="B70" t="n">
-        <v>7.577310000000001</v>
+        <v>6.9878</v>
       </c>
       <c r="C70" t="n">
-        <v>7577.31</v>
+        <v>6987.8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13348</v>
+        <v>2.13407</v>
       </c>
       <c r="B71" t="n">
-        <v>7.53271</v>
+        <v>6.932770000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>7532.71</v>
+        <v>6932.77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16482</v>
+        <v>2.16506</v>
       </c>
       <c r="B72" t="n">
-        <v>7.485069999999999</v>
+        <v>6.87569</v>
       </c>
       <c r="C72" t="n">
-        <v>7485.07</v>
+        <v>6875.69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19556</v>
+        <v>2.19602</v>
       </c>
       <c r="B73" t="n">
-        <v>7.43552</v>
+        <v>6.81517</v>
       </c>
       <c r="C73" t="n">
-        <v>7435.52</v>
+        <v>6815.17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22663</v>
+        <v>2.22698</v>
       </c>
       <c r="B74" t="n">
-        <v>7.38303</v>
+        <v>6.75229</v>
       </c>
       <c r="C74" t="n">
-        <v>7383.03</v>
+        <v>6752.29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25771</v>
+        <v>2.25812</v>
       </c>
       <c r="B75" t="n">
-        <v>7.32812</v>
+        <v>6.686520000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>7328.12</v>
+        <v>6686.52</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.28864</v>
+        <v>2.28904</v>
       </c>
       <c r="B76" t="n">
-        <v>7.27057</v>
+        <v>6.61784</v>
       </c>
       <c r="C76" t="n">
-        <v>7270.57</v>
+        <v>6617.84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.31964</v>
+        <v>2.31986</v>
       </c>
       <c r="B77" t="n">
-        <v>7.21012</v>
+        <v>6.54729</v>
       </c>
       <c r="C77" t="n">
-        <v>7210.12</v>
+        <v>6547.29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35067</v>
+        <v>2.35126</v>
       </c>
       <c r="B78" t="n">
-        <v>7.147310000000001</v>
+        <v>6.47343</v>
       </c>
       <c r="C78" t="n">
-        <v>7147.31</v>
+        <v>6473.43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38171</v>
+        <v>2.38176</v>
       </c>
       <c r="B79" t="n">
-        <v>7.081189999999999</v>
+        <v>6.39841</v>
       </c>
       <c r="C79" t="n">
-        <v>7081.19</v>
+        <v>6398.41</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41246</v>
+        <v>2.41311</v>
       </c>
       <c r="B80" t="n">
-        <v>7.01339</v>
+        <v>6.31974</v>
       </c>
       <c r="C80" t="n">
-        <v>7013.39</v>
+        <v>6319.74</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44271</v>
+        <v>2.44383</v>
       </c>
       <c r="B81" t="n">
-        <v>6.94476</v>
+        <v>6.24059</v>
       </c>
       <c r="C81" t="n">
-        <v>6944.76</v>
+        <v>6240.59</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47427</v>
+        <v>2.47395</v>
       </c>
       <c r="B82" t="n">
-        <v>6.869890000000001</v>
+        <v>6.161020000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>6869.89</v>
+        <v>6161.02</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50582</v>
+        <v>2.50584</v>
       </c>
       <c r="B83" t="n">
-        <v>6.79329</v>
+        <v>6.074920000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>6793.29</v>
+        <v>6074.92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53655</v>
+        <v>2.53713</v>
       </c>
       <c r="B84" t="n">
-        <v>6.71665</v>
+        <v>5.98979</v>
       </c>
       <c r="C84" t="n">
-        <v>6716.65</v>
+        <v>5989.79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56639</v>
+        <v>2.56707</v>
       </c>
       <c r="B85" t="n">
-        <v>6.63998</v>
+        <v>5.90535</v>
       </c>
       <c r="C85" t="n">
-        <v>6639.98</v>
+        <v>5905.35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59848</v>
+        <v>2.59727</v>
       </c>
       <c r="B86" t="n">
-        <v>6.55599</v>
+        <v>5.82091</v>
       </c>
       <c r="C86" t="n">
-        <v>6555.99</v>
+        <v>5820.91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62977</v>
+        <v>2.62939</v>
       </c>
       <c r="B87" t="n">
-        <v>6.47262</v>
+        <v>5.72863</v>
       </c>
       <c r="C87" t="n">
-        <v>6472.62</v>
+        <v>5728.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.65991</v>
+        <v>2.66139</v>
       </c>
       <c r="B88" t="n">
-        <v>6.389760000000001</v>
+        <v>5.63811</v>
       </c>
       <c r="C88" t="n">
-        <v>6389.76</v>
+        <v>5638.11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.68978</v>
+        <v>2.69199</v>
       </c>
       <c r="B89" t="n">
-        <v>6.30753</v>
+        <v>5.54965</v>
       </c>
       <c r="C89" t="n">
-        <v>6307.53</v>
+        <v>5549.65</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7219</v>
+        <v>2.72239</v>
       </c>
       <c r="B90" t="n">
-        <v>6.21674</v>
+        <v>5.46313</v>
       </c>
       <c r="C90" t="n">
-        <v>6216.74</v>
+        <v>5463.13</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7539</v>
+        <v>2.75188</v>
       </c>
       <c r="B91" t="n">
-        <v>6.126600000000001</v>
+        <v>5.37868</v>
       </c>
       <c r="C91" t="n">
-        <v>6126.6</v>
+        <v>5378.68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78483</v>
+        <v>2.78365</v>
       </c>
       <c r="B92" t="n">
-        <v>6.03814</v>
+        <v>5.28793</v>
       </c>
       <c r="C92" t="n">
-        <v>6038.14</v>
+        <v>5287.93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81523</v>
+        <v>2.81628</v>
       </c>
       <c r="B93" t="n">
-        <v>5.951350000000001</v>
+        <v>5.19646</v>
       </c>
       <c r="C93" t="n">
-        <v>5951.35</v>
+        <v>5196.46</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84512</v>
+        <v>2.84736</v>
       </c>
       <c r="B94" t="n">
-        <v>5.86655</v>
+        <v>5.107460000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>5866.55</v>
+        <v>5107.46</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87581</v>
+        <v>2.87845</v>
       </c>
       <c r="B95" t="n">
-        <v>5.77826</v>
+        <v>5.020770000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5778.26</v>
+        <v>5020.77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90873</v>
+        <v>2.90863</v>
       </c>
       <c r="B96" t="n">
-        <v>5.68566</v>
+        <v>4.9365</v>
       </c>
       <c r="C96" t="n">
-        <v>5685.66</v>
+        <v>4936.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94005</v>
+        <v>2.93789</v>
       </c>
       <c r="B97" t="n">
-        <v>5.5953</v>
+        <v>4.85457</v>
       </c>
       <c r="C97" t="n">
-        <v>5595.3</v>
+        <v>4854.57</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97113</v>
+        <v>2.96801</v>
       </c>
       <c r="B98" t="n">
-        <v>5.50728</v>
+        <v>4.77216</v>
       </c>
       <c r="C98" t="n">
-        <v>5507.28</v>
+        <v>4772.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0019</v>
+        <v>3.0011</v>
       </c>
       <c r="B99" t="n">
-        <v>5.42148</v>
+        <v>4.68158</v>
       </c>
       <c r="C99" t="n">
-        <v>5421.48</v>
+        <v>4681.58</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03116</v>
+        <v>3.0331</v>
       </c>
       <c r="B100" t="n">
-        <v>5.33776</v>
+        <v>4.59366</v>
       </c>
       <c r="C100" t="n">
-        <v>5337.76</v>
+        <v>4593.66</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06042</v>
+        <v>3.0651</v>
       </c>
       <c r="B101" t="n">
-        <v>5.255850000000001</v>
+        <v>4.50842</v>
       </c>
       <c r="C101" t="n">
-        <v>5255.85</v>
+        <v>4508.42</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09343</v>
+        <v>3.09641</v>
       </c>
       <c r="B102" t="n">
-        <v>5.16512</v>
+        <v>4.42566</v>
       </c>
       <c r="C102" t="n">
-        <v>5165.12</v>
+        <v>4425.66</v>
       </c>
     </row>
   </sheetData>
